--- a/data1.xlsx
+++ b/data1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\2019GMCM\Fcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\2019GMCM\MCM2019Fcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>编号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -50,14 +50,6 @@
   </si>
   <si>
     <t>Z坐标（单位: m）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1021,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
-      <selection activeCell="E614" sqref="E614"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1067,8 +1059,8 @@
       <c r="D2" s="2">
         <v>5000</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="E2" s="1">
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -13307,8 +13299,8 @@
       <c r="D614" s="2">
         <v>5022.0011644816404</v>
       </c>
-      <c r="E614" s="1" t="s">
-        <v>7</v>
+      <c r="E614" s="1">
+        <v>100</v>
       </c>
       <c r="F614" s="1">
         <v>0</v>
